--- a/classfiers/greedy/MLP/greedy-mlp-results.xlsx
+++ b/classfiers/greedy/MLP/greedy-mlp-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9028985507246376</v>
+        <v>0.9437229437229436</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9812409812409812</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.8722943722943723</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.8347826086956522</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3933333333333334</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9686956521739131</v>
+        <v>0.8380964928791016</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/greedy/MLP/greedy-mlp-results.xlsx
+++ b/classfiers/greedy/MLP/greedy-mlp-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9437229437229436</v>
+        <v>0.8904761904761904</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9812409812409812</v>
+        <v>0.8841269841269841</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8722943722943723</v>
+        <v>0.8070175438596492</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.5645933014354066</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8347826086956522</v>
+        <v>0.7511961722488039</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8380964928791016</v>
+        <v>0.7794820384294068</v>
       </c>
     </row>
   </sheetData>
